--- a/memaccess/charts.xlsx
+++ b/memaccess/charts.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/clj/jafingerhut.github.com/memaccess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28BC08E-EBE2-5149-9875-6A84EBE9CEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB89F9E-2044-124B-98B9-9C14B900F0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="760" windowWidth="32940" windowHeight="21580" xr2:uid="{081F3700-75E8-5441-97C6-4D48A715C7EA}"/>
+    <workbookView xWindow="1620" yWindow="760" windowWidth="32940" windowHeight="21580" activeTab="1" xr2:uid="{081F3700-75E8-5441-97C6-4D48A715C7EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="M2 Pro" sheetId="1" r:id="rId1"/>
+    <sheet name="Intel Core i9" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
   <si>
     <t>size_bytes</t>
   </si>
@@ -132,7 +133,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -184,7 +185,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$13</c:f>
+              <c:f>'M2 Pro'!$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -219,7 +220,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$35</c:f>
+              <c:f>'M2 Pro'!$C$14:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -294,7 +295,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$14:$D$35</c:f>
+              <c:f>'M2 Pro'!$D$14:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -379,7 +380,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$13</c:f>
+              <c:f>'M2 Pro'!$E$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -414,7 +415,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$35</c:f>
+              <c:f>'M2 Pro'!$C$14:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -489,7 +490,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$14:$E$35</c:f>
+              <c:f>'M2 Pro'!$E$14:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -574,7 +575,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$13</c:f>
+              <c:f>'M2 Pro'!$F$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -609,7 +610,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$35</c:f>
+              <c:f>'M2 Pro'!$C$14:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -684,7 +685,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$14:$F$35</c:f>
+              <c:f>'M2 Pro'!$F$14:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -769,7 +770,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$13</c:f>
+              <c:f>'M2 Pro'!$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -804,7 +805,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$35</c:f>
+              <c:f>'M2 Pro'!$C$14:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -879,7 +880,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$14:$G$35</c:f>
+              <c:f>'M2 Pro'!$G$14:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -964,7 +965,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$13</c:f>
+              <c:f>'M2 Pro'!$H$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -999,7 +1000,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$35</c:f>
+              <c:f>'M2 Pro'!$C$14:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1074,7 +1075,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$14:$H$35</c:f>
+              <c:f>'M2 Pro'!$H$14:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1159,7 +1160,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$13</c:f>
+              <c:f>'M2 Pro'!$I$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1200,7 +1201,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$35</c:f>
+              <c:f>'M2 Pro'!$C$14:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1275,7 +1276,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$14:$I$35</c:f>
+              <c:f>'M2 Pro'!$I$14:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1360,7 +1361,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$13</c:f>
+              <c:f>'M2 Pro'!$J$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1401,7 +1402,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$35</c:f>
+              <c:f>'M2 Pro'!$C$14:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1476,7 +1477,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$14:$J$35</c:f>
+              <c:f>'M2 Pro'!$J$14:$J$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1561,7 +1562,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$13</c:f>
+              <c:f>'M2 Pro'!$K$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1602,7 +1603,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$35</c:f>
+              <c:f>'M2 Pro'!$C$14:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1677,7 +1678,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$14:$K$35</c:f>
+              <c:f>'M2 Pro'!$K$14:$K$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1762,7 +1763,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$13</c:f>
+              <c:f>'M2 Pro'!$L$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1803,7 +1804,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$C$35</c:f>
+              <c:f>'M2 Pro'!$C$14:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1878,7 +1879,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$14:$L$35</c:f>
+              <c:f>'M2 Pro'!$L$14:$L$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2175,7 +2176,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2227,7 +2228,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$13</c:f>
+              <c:f>'M2 Pro'!$P$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2262,7 +2263,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$O$14:$O$35</c:f>
+              <c:f>'M2 Pro'!$O$14:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2337,7 +2338,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$14:$P$35</c:f>
+              <c:f>'M2 Pro'!$P$14:$P$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2422,7 +2423,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$13</c:f>
+              <c:f>'M2 Pro'!$Q$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2457,7 +2458,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$O$14:$O$35</c:f>
+              <c:f>'M2 Pro'!$O$14:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2532,7 +2533,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$14:$Q$35</c:f>
+              <c:f>'M2 Pro'!$Q$14:$Q$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2617,7 +2618,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$13</c:f>
+              <c:f>'M2 Pro'!$R$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2652,7 +2653,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$O$14:$O$35</c:f>
+              <c:f>'M2 Pro'!$O$14:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2727,7 +2728,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$14:$R$35</c:f>
+              <c:f>'M2 Pro'!$R$14:$R$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2812,7 +2813,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$13</c:f>
+              <c:f>'M2 Pro'!$S$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2847,7 +2848,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$O$14:$O$35</c:f>
+              <c:f>'M2 Pro'!$O$14:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2922,7 +2923,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$14:$S$35</c:f>
+              <c:f>'M2 Pro'!$S$14:$S$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -3007,7 +3008,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$13</c:f>
+              <c:f>'M2 Pro'!$T$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3042,7 +3043,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$O$14:$O$35</c:f>
+              <c:f>'M2 Pro'!$O$14:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -3117,7 +3118,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$14:$T$35</c:f>
+              <c:f>'M2 Pro'!$T$14:$T$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -3202,7 +3203,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$13</c:f>
+              <c:f>'M2 Pro'!$U$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3243,7 +3244,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$O$14:$O$35</c:f>
+              <c:f>'M2 Pro'!$O$14:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -3318,7 +3319,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$14:$U$35</c:f>
+              <c:f>'M2 Pro'!$U$14:$U$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -3403,7 +3404,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$13</c:f>
+              <c:f>'M2 Pro'!$V$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3444,7 +3445,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$O$14:$O$35</c:f>
+              <c:f>'M2 Pro'!$O$14:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -3519,7 +3520,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$V$14:$V$35</c:f>
+              <c:f>'M2 Pro'!$V$14:$V$35</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -3604,7 +3605,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$13</c:f>
+              <c:f>'M2 Pro'!$W$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3645,7 +3646,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$O$14:$O$35</c:f>
+              <c:f>'M2 Pro'!$O$14:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -3720,7 +3721,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$14:$W$35</c:f>
+              <c:f>'M2 Pro'!$W$14:$W$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -3805,7 +3806,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$13</c:f>
+              <c:f>'M2 Pro'!$X$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3846,7 +3847,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$O$14:$O$35</c:f>
+              <c:f>'M2 Pro'!$O$14:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="22"/>
@@ -3921,7 +3922,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$14:$X$35</c:f>
+              <c:f>'M2 Pro'!$X$14:$X$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4215,6 +4216,4093 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$C$14:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$D$14:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2.6969E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0104E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3130000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7459999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0530000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6009999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3529999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6590000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5879000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5448E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>2.0473000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2.1478000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>3.2383000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.9959999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>2.3259999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>3.6082999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>6.9486999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>6.6803000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>6.1822000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>6.1323000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>6.1904000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>6.0755999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78EF-6045-B588-11175F7D98C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$C$14:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$E$14:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>8.4524000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9812999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5228999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9671000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5799000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5893000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4040999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5125000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.1112E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0205000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>8.9796000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>8.6847999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>9.0472999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>8.6342000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.10158</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.16586300000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.24631500000000001</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.24530099999999999</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.25198399999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.25133800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.251946</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.25624799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78EF-6045-B588-11175F7D98C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$C$14:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$F$14:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.108515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7787999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0965E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8272999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2145999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0353999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6522999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6180000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2255999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2864000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.233515</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.215166</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.21807799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.21356700000000001</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.25566</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.61494400000000005</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1.2937920000000001</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>1.6063130000000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>1.997268</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>2.0517669999999999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>2.078179</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>2.0735160000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-78EF-6045-B588-11175F7D98C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$C$14:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$G$14:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.10433000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2068999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1592000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1541999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7956000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3974999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0343999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.113663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.106076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11207499999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.312616</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.30719099999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.30004799999999998</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.30163400000000001</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.36851299999999998</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.895648</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>2.7518600000000002</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>3.4517359999999999</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>3.3931369999999998</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>3.481363</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>3.5280840000000002</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>3.475196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-78EF-6045-B588-11175F7D98C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$C$14:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$H$14:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10566300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5306999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2121000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9193000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1527999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5383000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15212899999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.140099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.143984</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.35476099999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.39132899999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.389349</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.39512399999999998</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.44291000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1.118908</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3.5267900000000001</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>3.8966120000000002</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>4.2955079999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>4.2209310000000002</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>4.2778289999999997</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>4.2709409999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-78EF-6045-B588-11175F7D98C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$C$14:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$I$14:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.108775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10069599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6729000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5725000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4596999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8612000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.150175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13741500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.147231</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.36151299999999997</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.40790700000000002</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.40165000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.43448799999999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.40718399999999999</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1.403618</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3.8298830000000001</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>4.3511850000000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>4.6589140000000002</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>4.870546</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>4.8730460000000004</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>4.8383649999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-78EF-6045-B588-11175F7D98C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$C$14:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$J$14:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10467899999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.102226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2882999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1902999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6740999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.111882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.131465</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14710500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.36201</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.38489200000000001</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.38673000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.41118399999999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.497002</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1.5672779999999999</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3.9042880000000002</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>4.3596069999999996</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>4.6738059999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>4.8597099999999998</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>4.9885580000000003</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>4.9403160000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-78EF-6045-B588-11175F7D98C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$C$14:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$K$14:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9490999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6832000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6559999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2347999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13822499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.144202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33741399999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36816199999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37590800000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38441799999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56642899999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.78166</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3125559999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8182130000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.238105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2948570000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3610230000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3372390000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-78EF-6045-B588-11175F7D98C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$C$14:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$L$14:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10304199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10095700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3833000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3021000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.116688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.206347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31385800000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.326627</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32022899999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32614500000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0535620000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.583682</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2367030000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5102859999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.332287</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5826089999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5743489999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6617660000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-78EF-6045-B588-11175F7D98C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1462811776"/>
+        <c:axId val="1462884944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1462811776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1462884944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1462884944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1462811776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$O$14:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$P$14:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.112277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0880000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5628999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2682E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0021000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4314E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3791000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6687E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0207000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3017999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>8.4984000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>9.4396999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>8.5648000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.10119300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>9.1892000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.139705</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.16035099999999999</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.15642300000000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.15248</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.14840100000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.15477399999999999</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.156861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF42-7E48-9D29-6CB78412E551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$Q$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$O$14:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$Q$14:$Q$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>8.8543999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5231999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10463500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10345600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.104341</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3271999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4588000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8280000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3933000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0024999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.10699699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.11447</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.103557</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.106471</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.116212</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.23006499999999999</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.28479199999999999</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.27598600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.27793499999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.278999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.281588</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.28565299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF42-7E48-9D29-6CB78412E551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$O$14:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$R$14:$R$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.11044900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3543000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9661000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4166E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12617200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6179000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.101983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11043600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.100448</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10076599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.25131100000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.25314799999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.235429</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.237624</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.265677</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.65203</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1.321917</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>1.6213820000000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>1.864007</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>1.8687769999999999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>1.925257</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>1.892069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DF42-7E48-9D29-6CB78412E551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$O$14:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$S$14:$S$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.10627</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4144000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9094999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6437999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.100352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.107643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.105906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.120481</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10877299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.112953</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.33650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.32549299999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.32683600000000002</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.326571</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.37315300000000001</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.938253</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>2.6241050000000001</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>3.1026210000000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>3.4056380000000002</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>3.481398</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>3.5418400000000001</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>3.7439170000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DF42-7E48-9D29-6CB78412E551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$T$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$O$14:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$T$14:$T$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.108283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0311000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3533000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1828000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2763999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.105365</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.156416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13986199999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14874100000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.36574400000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.37351299999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.40348200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.40041199999999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.43499199999999999</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1.14514</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3.0724239999999998</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>3.8280620000000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>4.1385810000000003</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>4.1798310000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>4.3134569999999997</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>4.2887279999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DF42-7E48-9D29-6CB78412E551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$U$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$O$14:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$U$14:$U$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11074299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9718000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7878999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1366000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2171000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18862400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13836699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.147313</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.34958699999999998</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.37528699999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.40099800000000002</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.38348900000000002</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.40960299999999999</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1.349404</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3.3766229999999999</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>4.4515149999999997</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>4.7972479999999997</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>4.7570399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>4.9120590000000002</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>4.8291409999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DF42-7E48-9D29-6CB78412E551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$V$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$O$14:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$V$14:$V$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.111236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10581599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6468000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6693999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7147999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16425600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14718300000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.149502</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.33171800000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.37009599999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.35775000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.36167700000000003</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.49327700000000002</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1.469503</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>4.0291319999999997</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>4.4413499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>4.4650280000000002</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>4.9321089999999996</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>4.8861080000000001</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>4.9138460000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DF42-7E48-9D29-6CB78412E551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$W$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$O$14:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$W$14:$W$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.114631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10066</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5324999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3663999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7630999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14596200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14795900000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31608199999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41052899999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34109299999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40759899999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57311999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.663511</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0115920000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4325510000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7839929999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3678220000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3212330000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3155950000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DF42-7E48-9D29-6CB78412E551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Intel Core i9'!$X$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$O$14:$O$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Intel Core i9'!$X$14:$X$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.104823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10162400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0676000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1599E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13541800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20993700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.313137</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32052999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32911200000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33007999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.210855</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6696070000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7442280000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2760199999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.2711629999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7282529999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4422180000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5965170000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-DF42-7E48-9D29-6CB78412E551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1462811776"/>
+        <c:axId val="1462884944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1462811776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1462884944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1462884944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1462811776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4256,6 +8344,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5301,6 +9469,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5380,10 +10554,91 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F504ED0F-5C06-DC42-9DFA-9029F02A4E46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9319CEE5-4F9E-8241-A87A-CCB2DB5DB92F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5421,7 +10676,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5527,7 +10782,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5669,7 +10924,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5679,8 +10934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996F348E-22E8-D949-A559-61D49DAF0BB1}">
   <dimension ref="C1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7248,4 +12503,1579 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B0BE93-FE41-1C45-BABC-4A8C97B9E3CC}">
+  <dimension ref="C1:X35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C5"/>
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="1">
+        <f>2^28/C7</f>
+        <v>26843545600</v>
+      </c>
+      <c r="E7" s="2">
+        <f>10^9/D7</f>
+        <v>3.7252902984619141E-2</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="1">
+        <f>2^28/C8</f>
+        <v>2684354560</v>
+      </c>
+      <c r="E8" s="2">
+        <f>10^9/D8</f>
+        <v>0.37252902984619141</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f>2^28/C9</f>
+        <v>268435456</v>
+      </c>
+      <c r="E9" s="2">
+        <f>10^9/D9</f>
+        <v>3.7252902984619141</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <f>2^28/C10</f>
+        <v>89478485.333333328</v>
+      </c>
+      <c r="E10" s="2">
+        <f>10^9/D10</f>
+        <v>11.175870895385742</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <f>2^28/C11</f>
+        <v>53687091.200000003</v>
+      </c>
+      <c r="E11" s="2">
+        <f>10^9/D11</f>
+        <v>18.62645149230957</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>64</v>
+      </c>
+      <c r="I13">
+        <v>128</v>
+      </c>
+      <c r="J13">
+        <v>256</v>
+      </c>
+      <c r="K13">
+        <v>512</v>
+      </c>
+      <c r="L13">
+        <v>1024</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>16</v>
+      </c>
+      <c r="S13">
+        <v>32</v>
+      </c>
+      <c r="T13">
+        <v>64</v>
+      </c>
+      <c r="U13">
+        <v>128</v>
+      </c>
+      <c r="V13">
+        <v>256</v>
+      </c>
+      <c r="W13">
+        <v>512</v>
+      </c>
+      <c r="X13">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <v>256</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.6969E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8.4524000000000002E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.108515</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.10433000000000001</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>256</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.112277</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>8.8543999999999998E-2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.11044900000000001</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.10627</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.0104E-2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7.9812999999999995E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>7.7787999999999996E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>9.2068999999999998E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.10566300000000001</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.108775</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1024</v>
+      </c>
+      <c r="P15" s="2">
+        <v>9.0880000000000002E-2</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>9.5231999999999997E-2</v>
+      </c>
+      <c r="R15" s="2">
+        <v>9.3543000000000001E-2</v>
+      </c>
+      <c r="S15" s="2">
+        <v>9.4144000000000005E-2</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.108283</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0.11074299999999999</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>2048</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9.3130000000000001E-3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8.5228999999999999E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7.0965E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>7.1592000000000003E-2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>8.5306999999999994E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.10069599999999999</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.10467899999999999</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2048</v>
+      </c>
+      <c r="P16" s="2">
+        <v>8.5628999999999997E-2</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.10463500000000001</v>
+      </c>
+      <c r="R16" s="2">
+        <v>8.9661000000000005E-2</v>
+      </c>
+      <c r="S16" s="2">
+        <v>8.9094999999999994E-2</v>
+      </c>
+      <c r="T16" s="2">
+        <v>9.0311000000000002E-2</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0.10412</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0.111236</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>4096</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9.7459999999999995E-3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7.9671000000000006E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>7.8272999999999995E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>7.1541999999999994E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7.2121000000000005E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>8.6729000000000001E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.102226</v>
+      </c>
+      <c r="K17">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>4096</v>
+      </c>
+      <c r="P17" s="2">
+        <v>9.2682E-2</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.10345600000000001</v>
+      </c>
+      <c r="R17" s="2">
+        <v>9.4166E-2</v>
+      </c>
+      <c r="S17" s="2">
+        <v>9.6437999999999996E-2</v>
+      </c>
+      <c r="T17" s="2">
+        <v>9.3533000000000005E-2</v>
+      </c>
+      <c r="U17" s="2">
+        <v>8.9718000000000006E-2</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0.10581599999999999</v>
+      </c>
+      <c r="W17">
+        <v>0.114631</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C18" s="1">
+        <v>8192</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9.0530000000000003E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.5799000000000005E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8.2145999999999997E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6.7956000000000003E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>6.9193000000000005E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>6.5725000000000006E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>8.2882999999999998E-2</v>
+      </c>
+      <c r="K18">
+        <v>9.9490999999999996E-2</v>
+      </c>
+      <c r="L18">
+        <v>0.10304199999999999</v>
+      </c>
+      <c r="O18" s="1">
+        <v>8192</v>
+      </c>
+      <c r="P18" s="2">
+        <v>9.0021000000000004E-2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.104341</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0.12617200000000001</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.100352</v>
+      </c>
+      <c r="T18" s="2">
+        <v>9.1828000000000007E-2</v>
+      </c>
+      <c r="U18" s="2">
+        <v>8.7878999999999999E-2</v>
+      </c>
+      <c r="V18" s="2">
+        <v>8.6468000000000003E-2</v>
+      </c>
+      <c r="W18">
+        <v>0.10066</v>
+      </c>
+      <c r="X18">
+        <v>0.104823</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C19" s="1">
+        <v>16384</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8.6009999999999993E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7.5893000000000002E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8.0353999999999995E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>8.3974999999999994E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>7.1527999999999994E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>7.4596999999999997E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>7.1902999999999995E-2</v>
+      </c>
+      <c r="K19">
+        <v>8.6832000000000006E-2</v>
+      </c>
+      <c r="L19">
+        <v>0.10095700000000001</v>
+      </c>
+      <c r="O19" s="1">
+        <v>16384</v>
+      </c>
+      <c r="P19" s="2">
+        <v>8.4314E-2</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>9.3271999999999994E-2</v>
+      </c>
+      <c r="R19" s="2">
+        <v>9.6179000000000001E-2</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.107643</v>
+      </c>
+      <c r="T19" s="2">
+        <v>9.2763999999999999E-2</v>
+      </c>
+      <c r="U19" s="2">
+        <v>9.1366000000000003E-2</v>
+      </c>
+      <c r="V19" s="2">
+        <v>8.6693999999999993E-2</v>
+      </c>
+      <c r="W19">
+        <v>8.5324999999999998E-2</v>
+      </c>
+      <c r="X19">
+        <v>0.10162400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <v>32768</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8.3529999999999993E-3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7.4040999999999996E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>7.6522999999999994E-2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>8.0343999999999999E-2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>8.5383000000000001E-2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>6.8612000000000006E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>6.6740999999999995E-2</v>
+      </c>
+      <c r="K20">
+        <v>6.6559999999999994E-2</v>
+      </c>
+      <c r="L20">
+        <v>8.3833000000000005E-2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>32768</v>
+      </c>
+      <c r="P20" s="2">
+        <v>8.3791000000000004E-2</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>9.4588000000000005E-2</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.101983</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.105906</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0.105365</v>
+      </c>
+      <c r="U20" s="2">
+        <v>9.2171000000000003E-2</v>
+      </c>
+      <c r="V20" s="2">
+        <v>9.7147999999999998E-2</v>
+      </c>
+      <c r="W20">
+        <v>9.3663999999999997E-2</v>
+      </c>
+      <c r="X20">
+        <v>9.0676000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>65536</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.6590000000000001E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6.5125000000000002E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>8.6180000000000007E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.113663</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.15212899999999999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.150175</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.111882</v>
+      </c>
+      <c r="K21">
+        <v>7.2347999999999996E-2</v>
+      </c>
+      <c r="L21">
+        <v>7.3021000000000003E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>65536</v>
+      </c>
+      <c r="P21" s="2">
+        <v>8.6687E-2</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>9.8280000000000006E-2</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.11043600000000001</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.120481</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.156416</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0.18862400000000001</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0.16425600000000001</v>
+      </c>
+      <c r="W21">
+        <v>9.7630999999999996E-2</v>
+      </c>
+      <c r="X21">
+        <v>9.1599E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
+        <v>131072</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.5879000000000001E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6.1112E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8.2255999999999996E-2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.106076</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.140099</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.13741500000000001</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.131465</v>
+      </c>
+      <c r="K22">
+        <v>0.13822499999999999</v>
+      </c>
+      <c r="L22">
+        <v>0.116688</v>
+      </c>
+      <c r="O22" s="1">
+        <v>131072</v>
+      </c>
+      <c r="P22" s="2">
+        <v>8.0207000000000001E-2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>9.3933000000000003E-2</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.100448</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.10877299999999999</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0.13986199999999999</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0.13836699999999999</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0.14718300000000001</v>
+      </c>
+      <c r="W22">
+        <v>0.14596200000000001</v>
+      </c>
+      <c r="X22">
+        <v>0.13541800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
+        <v>262144</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.5448E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6.0205000000000002E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>9.2864000000000002E-2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.11207499999999999</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.143984</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.147231</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.14710500000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.144202</v>
+      </c>
+      <c r="L23">
+        <v>0.206347</v>
+      </c>
+      <c r="O23" s="1">
+        <v>262144</v>
+      </c>
+      <c r="P23" s="2">
+        <v>8.3017999999999995E-2</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>9.0024999999999994E-2</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.10076599999999999</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.112953</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.14874100000000001</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0.147313</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0.149502</v>
+      </c>
+      <c r="W23">
+        <v>0.14795900000000001</v>
+      </c>
+      <c r="X23">
+        <v>0.20993700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
+        <v>524288</v>
+      </c>
+      <c r="D24">
+        <v>2.0473000000000002E-2</v>
+      </c>
+      <c r="E24">
+        <v>8.9796000000000001E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.233515</v>
+      </c>
+      <c r="G24">
+        <v>0.312616</v>
+      </c>
+      <c r="H24">
+        <v>0.35476099999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.36151299999999997</v>
+      </c>
+      <c r="J24">
+        <v>0.36201</v>
+      </c>
+      <c r="K24">
+        <v>0.33741399999999999</v>
+      </c>
+      <c r="L24">
+        <v>0.31385800000000003</v>
+      </c>
+      <c r="O24" s="1">
+        <v>524288</v>
+      </c>
+      <c r="P24">
+        <v>8.4984000000000004E-2</v>
+      </c>
+      <c r="Q24">
+        <v>0.10699699999999999</v>
+      </c>
+      <c r="R24">
+        <v>0.25131100000000001</v>
+      </c>
+      <c r="S24">
+        <v>0.33650000000000002</v>
+      </c>
+      <c r="T24">
+        <v>0.36574400000000001</v>
+      </c>
+      <c r="U24">
+        <v>0.34958699999999998</v>
+      </c>
+      <c r="V24">
+        <v>0.33171800000000001</v>
+      </c>
+      <c r="W24">
+        <v>0.31608199999999997</v>
+      </c>
+      <c r="X24">
+        <v>0.313137</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
+        <v>1048576</v>
+      </c>
+      <c r="D25">
+        <v>2.1478000000000001E-2</v>
+      </c>
+      <c r="E25">
+        <v>8.6847999999999995E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.215166</v>
+      </c>
+      <c r="G25">
+        <v>0.30719099999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.39132899999999998</v>
+      </c>
+      <c r="I25">
+        <v>0.40790700000000002</v>
+      </c>
+      <c r="J25">
+        <v>0.38489200000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.36816199999999999</v>
+      </c>
+      <c r="L25">
+        <v>0.326627</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1048576</v>
+      </c>
+      <c r="P25">
+        <v>9.4396999999999995E-2</v>
+      </c>
+      <c r="Q25">
+        <v>0.11447</v>
+      </c>
+      <c r="R25">
+        <v>0.25314799999999998</v>
+      </c>
+      <c r="S25">
+        <v>0.32549299999999998</v>
+      </c>
+      <c r="T25">
+        <v>0.37351299999999998</v>
+      </c>
+      <c r="U25">
+        <v>0.37528699999999998</v>
+      </c>
+      <c r="V25">
+        <v>0.37009599999999998</v>
+      </c>
+      <c r="W25">
+        <v>0.41052899999999998</v>
+      </c>
+      <c r="X25">
+        <v>0.32052999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
+        <v>2097152</v>
+      </c>
+      <c r="D26">
+        <v>3.2383000000000002E-2</v>
+      </c>
+      <c r="E26">
+        <v>9.0472999999999998E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.21807799999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.30004799999999998</v>
+      </c>
+      <c r="H26">
+        <v>0.389349</v>
+      </c>
+      <c r="I26">
+        <v>0.40165000000000001</v>
+      </c>
+      <c r="J26">
+        <v>0.38673000000000002</v>
+      </c>
+      <c r="K26">
+        <v>0.37590800000000002</v>
+      </c>
+      <c r="L26">
+        <v>0.32022899999999999</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2097152</v>
+      </c>
+      <c r="P26">
+        <v>8.5648000000000002E-2</v>
+      </c>
+      <c r="Q26">
+        <v>0.103557</v>
+      </c>
+      <c r="R26">
+        <v>0.235429</v>
+      </c>
+      <c r="S26">
+        <v>0.32683600000000002</v>
+      </c>
+      <c r="T26">
+        <v>0.40348200000000001</v>
+      </c>
+      <c r="U26">
+        <v>0.40099800000000002</v>
+      </c>
+      <c r="V26">
+        <v>0.35775000000000001</v>
+      </c>
+      <c r="W26">
+        <v>0.34109299999999998</v>
+      </c>
+      <c r="X26">
+        <v>0.32911200000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
+        <v>4194304</v>
+      </c>
+      <c r="D27">
+        <v>1.9959999999999999E-2</v>
+      </c>
+      <c r="E27">
+        <v>8.6342000000000002E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.21356700000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.30163400000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.39512399999999998</v>
+      </c>
+      <c r="I27">
+        <v>0.43448799999999999</v>
+      </c>
+      <c r="J27">
+        <v>0.41118399999999999</v>
+      </c>
+      <c r="K27">
+        <v>0.38441799999999998</v>
+      </c>
+      <c r="L27">
+        <v>0.32614500000000002</v>
+      </c>
+      <c r="O27" s="1">
+        <v>4194304</v>
+      </c>
+      <c r="P27">
+        <v>0.10119300000000001</v>
+      </c>
+      <c r="Q27">
+        <v>0.106471</v>
+      </c>
+      <c r="R27">
+        <v>0.237624</v>
+      </c>
+      <c r="S27">
+        <v>0.326571</v>
+      </c>
+      <c r="T27">
+        <v>0.40041199999999999</v>
+      </c>
+      <c r="U27">
+        <v>0.38348900000000002</v>
+      </c>
+      <c r="V27">
+        <v>0.36167700000000003</v>
+      </c>
+      <c r="W27">
+        <v>0.40759899999999999</v>
+      </c>
+      <c r="X27">
+        <v>0.33007999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C28" s="1">
+        <v>8388608</v>
+      </c>
+      <c r="D28">
+        <v>2.3259999999999999E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.10158</v>
+      </c>
+      <c r="F28">
+        <v>0.25566</v>
+      </c>
+      <c r="G28">
+        <v>0.36851299999999998</v>
+      </c>
+      <c r="H28">
+        <v>0.44291000000000003</v>
+      </c>
+      <c r="I28">
+        <v>0.40718399999999999</v>
+      </c>
+      <c r="J28">
+        <v>0.497002</v>
+      </c>
+      <c r="K28">
+        <v>0.56642899999999996</v>
+      </c>
+      <c r="L28">
+        <v>1.0535620000000001</v>
+      </c>
+      <c r="O28" s="1">
+        <v>8388608</v>
+      </c>
+      <c r="P28">
+        <v>9.1892000000000001E-2</v>
+      </c>
+      <c r="Q28">
+        <v>0.116212</v>
+      </c>
+      <c r="R28">
+        <v>0.265677</v>
+      </c>
+      <c r="S28">
+        <v>0.37315300000000001</v>
+      </c>
+      <c r="T28">
+        <v>0.43499199999999999</v>
+      </c>
+      <c r="U28">
+        <v>0.40960299999999999</v>
+      </c>
+      <c r="V28">
+        <v>0.49327700000000002</v>
+      </c>
+      <c r="W28">
+        <v>0.57311999999999996</v>
+      </c>
+      <c r="X28">
+        <v>1.210855</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>16777216</v>
+      </c>
+      <c r="D29">
+        <v>3.6082999999999997E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.16586300000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.61494400000000005</v>
+      </c>
+      <c r="G29">
+        <v>0.895648</v>
+      </c>
+      <c r="H29">
+        <v>1.118908</v>
+      </c>
+      <c r="I29">
+        <v>1.403618</v>
+      </c>
+      <c r="J29">
+        <v>1.5672779999999999</v>
+      </c>
+      <c r="K29">
+        <v>1.78166</v>
+      </c>
+      <c r="L29">
+        <v>2.583682</v>
+      </c>
+      <c r="O29" s="1">
+        <v>16777216</v>
+      </c>
+      <c r="P29">
+        <v>0.139705</v>
+      </c>
+      <c r="Q29">
+        <v>0.23006499999999999</v>
+      </c>
+      <c r="R29">
+        <v>0.65203</v>
+      </c>
+      <c r="S29">
+        <v>0.938253</v>
+      </c>
+      <c r="T29">
+        <v>1.14514</v>
+      </c>
+      <c r="U29">
+        <v>1.349404</v>
+      </c>
+      <c r="V29">
+        <v>1.469503</v>
+      </c>
+      <c r="W29">
+        <v>1.663511</v>
+      </c>
+      <c r="X29">
+        <v>2.6696070000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <v>33554432</v>
+      </c>
+      <c r="D30">
+        <v>6.9486999999999993E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.24631500000000001</v>
+      </c>
+      <c r="F30">
+        <v>1.2937920000000001</v>
+      </c>
+      <c r="G30">
+        <v>2.7518600000000002</v>
+      </c>
+      <c r="H30">
+        <v>3.5267900000000001</v>
+      </c>
+      <c r="I30">
+        <v>3.8298830000000001</v>
+      </c>
+      <c r="J30">
+        <v>3.9042880000000002</v>
+      </c>
+      <c r="K30">
+        <v>4.3125559999999998</v>
+      </c>
+      <c r="L30">
+        <v>4.2367030000000003</v>
+      </c>
+      <c r="O30" s="1">
+        <v>33554432</v>
+      </c>
+      <c r="P30">
+        <v>0.16035099999999999</v>
+      </c>
+      <c r="Q30">
+        <v>0.28479199999999999</v>
+      </c>
+      <c r="R30">
+        <v>1.321917</v>
+      </c>
+      <c r="S30">
+        <v>2.6241050000000001</v>
+      </c>
+      <c r="T30">
+        <v>3.0724239999999998</v>
+      </c>
+      <c r="U30">
+        <v>3.3766229999999999</v>
+      </c>
+      <c r="V30">
+        <v>4.0291319999999997</v>
+      </c>
+      <c r="W30">
+        <v>4.0115920000000003</v>
+      </c>
+      <c r="X30">
+        <v>3.7442280000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <v>67108864</v>
+      </c>
+      <c r="D31">
+        <v>6.6803000000000001E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.24530099999999999</v>
+      </c>
+      <c r="F31">
+        <v>1.6063130000000001</v>
+      </c>
+      <c r="G31">
+        <v>3.4517359999999999</v>
+      </c>
+      <c r="H31">
+        <v>3.8966120000000002</v>
+      </c>
+      <c r="I31">
+        <v>4.3511850000000001</v>
+      </c>
+      <c r="J31">
+        <v>4.3596069999999996</v>
+      </c>
+      <c r="K31">
+        <v>4.8182130000000001</v>
+      </c>
+      <c r="L31">
+        <v>4.5102859999999998</v>
+      </c>
+      <c r="O31" s="1">
+        <v>67108864</v>
+      </c>
+      <c r="P31">
+        <v>0.15642300000000001</v>
+      </c>
+      <c r="Q31">
+        <v>0.27598600000000001</v>
+      </c>
+      <c r="R31">
+        <v>1.6213820000000001</v>
+      </c>
+      <c r="S31">
+        <v>3.1026210000000001</v>
+      </c>
+      <c r="T31">
+        <v>3.8280620000000001</v>
+      </c>
+      <c r="U31">
+        <v>4.4515149999999997</v>
+      </c>
+      <c r="V31">
+        <v>4.4413499999999999</v>
+      </c>
+      <c r="W31">
+        <v>4.4325510000000001</v>
+      </c>
+      <c r="X31">
+        <v>4.2760199999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>134217728</v>
+      </c>
+      <c r="D32">
+        <v>6.1822000000000002E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.25198399999999999</v>
+      </c>
+      <c r="F32">
+        <v>1.997268</v>
+      </c>
+      <c r="G32">
+        <v>3.3931369999999998</v>
+      </c>
+      <c r="H32">
+        <v>4.2955079999999999</v>
+      </c>
+      <c r="I32">
+        <v>4.6589140000000002</v>
+      </c>
+      <c r="J32">
+        <v>4.6738059999999999</v>
+      </c>
+      <c r="K32">
+        <v>5.238105</v>
+      </c>
+      <c r="L32">
+        <v>4.332287</v>
+      </c>
+      <c r="O32" s="1">
+        <v>134217728</v>
+      </c>
+      <c r="P32">
+        <v>0.15248</v>
+      </c>
+      <c r="Q32">
+        <v>0.27793499999999999</v>
+      </c>
+      <c r="R32">
+        <v>1.864007</v>
+      </c>
+      <c r="S32">
+        <v>3.4056380000000002</v>
+      </c>
+      <c r="T32">
+        <v>4.1385810000000003</v>
+      </c>
+      <c r="U32">
+        <v>4.7972479999999997</v>
+      </c>
+      <c r="V32">
+        <v>4.4650280000000002</v>
+      </c>
+      <c r="W32">
+        <v>4.7839929999999997</v>
+      </c>
+      <c r="X32">
+        <v>4.2711629999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
+        <v>268435456</v>
+      </c>
+      <c r="D33">
+        <v>6.1323000000000003E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.25133800000000001</v>
+      </c>
+      <c r="F33">
+        <v>2.0517669999999999</v>
+      </c>
+      <c r="G33">
+        <v>3.481363</v>
+      </c>
+      <c r="H33">
+        <v>4.2209310000000002</v>
+      </c>
+      <c r="I33">
+        <v>4.870546</v>
+      </c>
+      <c r="J33">
+        <v>4.8597099999999998</v>
+      </c>
+      <c r="K33">
+        <v>5.2948570000000004</v>
+      </c>
+      <c r="L33">
+        <v>4.5826089999999997</v>
+      </c>
+      <c r="O33" s="1">
+        <v>268435456</v>
+      </c>
+      <c r="P33">
+        <v>0.14840100000000001</v>
+      </c>
+      <c r="Q33">
+        <v>0.278999</v>
+      </c>
+      <c r="R33">
+        <v>1.8687769999999999</v>
+      </c>
+      <c r="S33">
+        <v>3.481398</v>
+      </c>
+      <c r="T33">
+        <v>4.1798310000000001</v>
+      </c>
+      <c r="U33">
+        <v>4.7570399999999999</v>
+      </c>
+      <c r="V33">
+        <v>4.9321089999999996</v>
+      </c>
+      <c r="W33">
+        <v>5.3678220000000003</v>
+      </c>
+      <c r="X33">
+        <v>4.7282529999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
+        <v>536870912</v>
+      </c>
+      <c r="D34">
+        <v>6.1904000000000001E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.251946</v>
+      </c>
+      <c r="F34">
+        <v>2.078179</v>
+      </c>
+      <c r="G34">
+        <v>3.5280840000000002</v>
+      </c>
+      <c r="H34">
+        <v>4.2778289999999997</v>
+      </c>
+      <c r="I34">
+        <v>4.8730460000000004</v>
+      </c>
+      <c r="J34">
+        <v>4.9885580000000003</v>
+      </c>
+      <c r="K34">
+        <v>5.3610230000000003</v>
+      </c>
+      <c r="L34">
+        <v>4.5743489999999998</v>
+      </c>
+      <c r="O34" s="1">
+        <v>536870912</v>
+      </c>
+      <c r="P34">
+        <v>0.15477399999999999</v>
+      </c>
+      <c r="Q34">
+        <v>0.281588</v>
+      </c>
+      <c r="R34">
+        <v>1.925257</v>
+      </c>
+      <c r="S34">
+        <v>3.5418400000000001</v>
+      </c>
+      <c r="T34">
+        <v>4.3134569999999997</v>
+      </c>
+      <c r="U34">
+        <v>4.9120590000000002</v>
+      </c>
+      <c r="V34">
+        <v>4.8861080000000001</v>
+      </c>
+      <c r="W34">
+        <v>5.3212330000000003</v>
+      </c>
+      <c r="X34">
+        <v>4.4422180000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>1073741824</v>
+      </c>
+      <c r="D35">
+        <v>6.0755999999999998E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.25624799999999998</v>
+      </c>
+      <c r="F35">
+        <v>2.0735160000000001</v>
+      </c>
+      <c r="G35">
+        <v>3.475196</v>
+      </c>
+      <c r="H35">
+        <v>4.2709409999999997</v>
+      </c>
+      <c r="I35">
+        <v>4.8383649999999996</v>
+      </c>
+      <c r="J35">
+        <v>4.9403160000000002</v>
+      </c>
+      <c r="K35">
+        <v>5.3372390000000003</v>
+      </c>
+      <c r="L35">
+        <v>4.6617660000000001</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1073741824</v>
+      </c>
+      <c r="P35">
+        <v>0.156861</v>
+      </c>
+      <c r="Q35">
+        <v>0.28565299999999999</v>
+      </c>
+      <c r="R35">
+        <v>1.892069</v>
+      </c>
+      <c r="S35">
+        <v>3.7439170000000002</v>
+      </c>
+      <c r="T35">
+        <v>4.2887279999999999</v>
+      </c>
+      <c r="U35">
+        <v>4.8291409999999999</v>
+      </c>
+      <c r="V35">
+        <v>4.9138460000000004</v>
+      </c>
+      <c r="W35">
+        <v>5.3155950000000001</v>
+      </c>
+      <c r="X35">
+        <v>4.5965170000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/memaccess/charts.xlsx
+++ b/memaccess/charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/clj/jafingerhut.github.com/memaccess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE8959-0F4C-5F49-9F05-8FA9959B1770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FF3438-F7FD-AE46-9FE7-47201B33F5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="760" windowWidth="32940" windowHeight="21580" activeTab="4" xr2:uid="{081F3700-75E8-5441-97C6-4D48A715C7EA}"/>
+    <workbookView xWindow="1620" yWindow="760" windowWidth="32940" windowHeight="21580" xr2:uid="{081F3700-75E8-5441-97C6-4D48A715C7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 M2 Pro" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="20">
   <si>
     <t>size_bytes</t>
   </si>
@@ -81,13 +81,41 @@
   <si>
     <t>NEGATIVE STRIDES</t>
   </si>
+  <si>
+    <t>Clock speed (GHz)</t>
+  </si>
+  <si>
+    <t>clock period (nsec)</t>
+  </si>
+  <si>
+    <t>clock cycles</t>
+  </si>
+  <si>
+    <t>512 KB on-chip cache</t>
+  </si>
+  <si>
+    <t>64 KB L1 cache</t>
+  </si>
+  <si>
+    <t>6 MB shared L3 cache</t>
+  </si>
+  <si>
+    <t>~6 adds per 3.7GHz clock period</t>
+  </si>
+  <si>
+    <t>256 KB L2 cache</t>
+  </si>
+  <si>
+    <t>3 MB L3 cache</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -118,11 +146,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11886,6 +11916,7 @@
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
           <c:max val="5.12"/>
+          <c:min val="0.01"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -14218,37 +14249,37 @@
                 <c:pt idx="9">
                   <c:v>2.5366E-2</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>2.5017000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>2.5201999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>2.6096999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>3.4433999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>4.7648000000000003E-2</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>5.3926000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>5.6356000000000003E-2</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>7.0610000000000006E-2</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>7.3663999999999993E-2</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>7.2221999999999995E-2</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>7.0574999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -14407,37 +14438,37 @@
                 <c:pt idx="9">
                   <c:v>0.117046</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.116799</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.121452</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>0.13021199999999999</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>0.16921800000000001</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>0.206788</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>0.21967999999999999</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>0.22332399999999999</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>0.25789400000000001</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>0.30150300000000002</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>0.301344</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>0.296462</c:v>
                 </c:pt>
               </c:numCache>
@@ -14596,37 +14627,37 @@
                 <c:pt idx="9">
                   <c:v>0.359292</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.361761</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.36088799999999999</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>0.38137100000000002</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>0.51552699999999996</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>0.71517500000000001</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>0.77917800000000004</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>0.81923800000000002</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>0.90912999999999999</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>1.101567</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>1.251044</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>1.1014969999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -14785,37 +14816,37 @@
                 <c:pt idx="9">
                   <c:v>0.41991099999999998</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.43349799999999999</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.42451100000000003</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>0.46498</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>0.72057400000000005</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>0.968669</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>1.1142559999999999</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>1.1763300000000001</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>1.29175</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>1.634468</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>1.6606959999999999</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>1.633999</c:v>
                 </c:pt>
               </c:numCache>
@@ -14974,37 +15005,37 @@
                 <c:pt idx="9">
                   <c:v>0.44120399999999999</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.43933899999999998</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.451376</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>0.49726500000000001</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>0.73631000000000002</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>1.0328809999999999</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>1.2128270000000001</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>1.2693030000000001</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>1.4200440000000001</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>1.736029</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>1.9342950000000001</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>1.971106</c:v>
                 </c:pt>
               </c:numCache>
@@ -15169,37 +15200,37 @@
                 <c:pt idx="9">
                   <c:v>0.37690800000000002</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.38187399999999999</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.38589000000000001</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>0.44257999999999997</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>0.65790899999999997</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>0.95035599999999998</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>1.0979890000000001</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>1.157942</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>1.3849089999999999</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>1.724348</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>1.819809</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>1.803272</c:v>
                 </c:pt>
               </c:numCache>
@@ -15364,37 +15395,37 @@
                 <c:pt idx="9">
                   <c:v>0.37658599999999998</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.383658</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.37719999999999998</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>0.46590199999999998</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>0.68644700000000003</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>0.92892600000000003</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>1.107888</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>1.1636679999999999</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>1.396841</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>1.914712</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>1.920974</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>1.9602550000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -15527,7 +15558,7 @@
             <c:numRef>
               <c:f>'2014 MacBookPro'!$K$14:$K$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -15722,7 +15753,7 @@
             <c:numRef>
               <c:f>'2014 MacBookPro'!$L$14:$L$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -16209,37 +16240,37 @@
                 <c:pt idx="9">
                   <c:v>0.13526199999999999</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.13214400000000001</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.13305600000000001</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>0.14038100000000001</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>0.13646800000000001</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>0.14415</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>0.14243</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>0.144763</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>0.14199999999999999</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>0.15577099999999999</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>0.152559</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>0.149529</c:v>
                 </c:pt>
               </c:numCache>
@@ -16398,37 +16429,37 @@
                 <c:pt idx="9">
                   <c:v>0.140957</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.140038</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.141737</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>0.157697</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>0.17319899999999999</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>0.20987900000000001</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>0.22158700000000001</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>0.227932</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>0.26524999999999999</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>0.30995200000000001</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>0.30471199999999998</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>0.29759099999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -16587,37 +16618,37 @@
                 <c:pt idx="9">
                   <c:v>0.36049100000000001</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.35921199999999998</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.35838300000000001</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>0.37626100000000001</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>0.50101499999999999</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>0.70927200000000001</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>0.78307199999999999</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>0.804257</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>0.91329700000000003</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>1.1263840000000001</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>1.0934269999999999</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>1.127624</c:v>
                 </c:pt>
               </c:numCache>
@@ -16776,37 +16807,37 @@
                 <c:pt idx="9">
                   <c:v>0.42336499999999999</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.42436499999999999</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.42604900000000001</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>0.45872400000000002</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>0.66889600000000005</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>0.93852599999999997</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>1.0883020000000001</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>1.1450819999999999</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>1.2915989999999999</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>1.6532230000000001</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>1.5983719999999999</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>1.6495610000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -16965,37 +16996,37 @@
                 <c:pt idx="9">
                   <c:v>0.43804399999999999</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.434498</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.44006400000000001</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>0.49197999999999997</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>0.73406899999999997</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>1.0193099999999999</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>1.2228429999999999</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>1.2818849999999999</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>1.41615</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>1.6704969999999999</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>1.9011640000000001</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>1.997838</c:v>
                 </c:pt>
               </c:numCache>
@@ -17160,37 +17191,37 @@
                 <c:pt idx="9">
                   <c:v>0.37545600000000001</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.377216</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.38098599999999999</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>0.44505899999999998</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>0.657744</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>0.92188499999999995</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>1.0821419999999999</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>1.1663239999999999</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>1.3512980000000001</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>1.604136</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>1.794411</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>1.8553649999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -17355,37 +17386,37 @@
                 <c:pt idx="9">
                   <c:v>0.379187</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>0.377438</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="11">
                   <c:v>0.380019</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>0.48186499999999999</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="13">
                   <c:v>0.66620100000000004</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>0.91894500000000001</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="15">
                   <c:v>1.109518</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="16">
                   <c:v>1.1638470000000001</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="17">
                   <c:v>1.403705</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>1.729077</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="19">
                   <c:v>1.9121269999999999</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>1.9874510000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -17518,7 +17549,7 @@
             <c:numRef>
               <c:f>'2014 MacBookPro'!$W$14:$W$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -17713,7 +17744,7 @@
             <c:numRef>
               <c:f>'2014 MacBookPro'!$X$14:$X$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -26073,7 +26104,7 @@
   </sheetPr>
   <dimension ref="C1:X34"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:X76"/>
     </sheetView>
   </sheetViews>
@@ -29105,10 +29136,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:X34"/>
+  <dimension ref="B1:X34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:X76"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29159,16 +29190,15 @@
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
-        <f>0.01</f>
-        <v>0.01</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D7" s="1">
         <f>2^28/C7</f>
-        <v>26843545600</v>
+        <v>16777216000</v>
       </c>
       <c r="E7" s="2">
         <f>10^9/D7</f>
-        <v>3.7252902984619141E-2</v>
+        <v>5.9604644775390625E-2</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="1"/>
@@ -29176,15 +29206,15 @@
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="D8" s="1">
         <f>2^28/C8</f>
-        <v>2684354560</v>
+        <v>1677721600</v>
       </c>
       <c r="E8" s="2">
         <f>10^9/D8</f>
-        <v>0.37252902984619141</v>
+        <v>0.59604644775390625</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="1"/>
@@ -29208,15 +29238,15 @@
     </row>
     <row r="10" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="D10" s="1">
         <f>2^28/C10</f>
-        <v>89478485.333333328</v>
+        <v>157903209.41176471</v>
       </c>
       <c r="E10" s="2">
         <f>10^9/D10</f>
-        <v>11.175870895385742</v>
+        <v>6.3329935073852539</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="1"/>
@@ -29224,15 +29254,15 @@
     </row>
     <row r="11" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="D11" s="1">
         <f>2^28/C11</f>
-        <v>53687091.200000003</v>
+        <v>78951604.705882356</v>
       </c>
       <c r="E11" s="2">
         <f>10^9/D11</f>
-        <v>18.62645149230957</v>
+        <v>12.665987014770508</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="1"/>
@@ -29494,7 +29524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>8192</v>
       </c>
@@ -29556,7 +29586,7 @@
         <v>0.19716700000000001</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <v>16384</v>
       </c>
@@ -29618,7 +29648,7 @@
         <v>0.20296</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>32768</v>
       </c>
@@ -29680,7 +29710,7 @@
         <v>0.170769</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <v>65536</v>
       </c>
@@ -29742,7 +29772,7 @@
         <v>0.17030699999999999</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <v>131072</v>
       </c>
@@ -29804,7 +29834,10 @@
         <v>0.28419800000000001</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
       <c r="C22" s="1">
         <v>262144</v>
       </c>
@@ -29866,7 +29899,7 @@
         <v>0.41384900000000002</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <v>524288</v>
       </c>
@@ -29928,7 +29961,7 @@
         <v>0.51241099999999995</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>1048576</v>
       </c>
@@ -29990,7 +30023,7 @@
         <v>0.51654199999999995</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <v>2097152</v>
       </c>
@@ -30052,7 +30085,10 @@
         <v>0.73488500000000001</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
       <c r="C26" s="1">
         <v>4194304</v>
       </c>
@@ -30114,7 +30150,7 @@
         <v>1.418882</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <v>8388608</v>
       </c>
@@ -30176,7 +30212,7 @@
         <v>2.6723870000000001</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <v>16777216</v>
       </c>
@@ -30238,7 +30274,7 @@
         <v>3.0394079999999999</v>
       </c>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>33554432</v>
       </c>
@@ -30300,7 +30336,7 @@
         <v>3.2709519999999999</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>67108864</v>
       </c>
@@ -30362,7 +30398,7 @@
         <v>2.9156939999999998</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <v>134217728</v>
       </c>
@@ -30424,7 +30460,7 @@
         <v>3.0132020000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <v>268435456</v>
       </c>
@@ -30622,10 +30658,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:X34"/>
+  <dimension ref="B1:X35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:X76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30676,16 +30712,24 @@
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
-        <f>0.01</f>
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D7" s="1">
         <f>2^28/C7</f>
-        <v>26843545600</v>
+        <v>22369621333.333332</v>
       </c>
       <c r="E7" s="2">
         <f>10^9/D7</f>
-        <v>3.7252902984619141E-2</v>
+        <v>4.4703483581542969E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="1"/>
@@ -30693,15 +30737,22 @@
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
-        <v>0.1</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D8" s="1">
         <f>2^28/C8</f>
-        <v>2684354560</v>
+        <v>1988410785.185185</v>
       </c>
       <c r="E8" s="2">
         <f>10^9/D8</f>
-        <v>0.37252902984619141</v>
+        <v>0.50291419029235851</v>
+      </c>
+      <c r="H8">
+        <v>2.5</v>
+      </c>
+      <c r="I8" s="4">
+        <f>1/H8</f>
+        <v>0.4</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="1"/>
@@ -30709,15 +30760,22 @@
     </row>
     <row r="9" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D9" s="1">
         <f>2^28/C9</f>
-        <v>268435456</v>
+        <v>671088640</v>
       </c>
       <c r="E9" s="2">
         <f>10^9/D9</f>
-        <v>3.7252902984619141</v>
+        <v>1.4901161193847656</v>
+      </c>
+      <c r="H9">
+        <v>3.7</v>
+      </c>
+      <c r="I9" s="4">
+        <f>1/H9</f>
+        <v>0.27027027027027023</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="1"/>
@@ -30725,15 +30783,15 @@
     </row>
     <row r="10" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D10" s="1">
         <f>2^28/C10</f>
-        <v>89478485.333333328</v>
+        <v>244032232.72727272</v>
       </c>
       <c r="E10" s="2">
         <f>10^9/D10</f>
-        <v>11.175870895385742</v>
+        <v>4.0978193283081055</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="1"/>
@@ -30741,15 +30799,15 @@
     </row>
     <row r="11" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <f>2^28/C11</f>
-        <v>53687091.200000003</v>
+        <v>134217728</v>
       </c>
       <c r="E11" s="2">
         <f>10^9/D11</f>
-        <v>18.62645149230957</v>
+        <v>7.4505805969238281</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="1"/>
@@ -30850,10 +30908,10 @@
       <c r="J14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O14" s="1">
@@ -30880,10 +30938,10 @@
       <c r="V14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X14" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -30912,10 +30970,10 @@
       <c r="J15" s="2">
         <v>0.13930500000000001</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O15" s="1">
@@ -30942,10 +31000,10 @@
       <c r="V15" s="2">
         <v>0.173397</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X15" t="s">
+      <c r="X15" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -30974,10 +31032,10 @@
       <c r="J16" s="2">
         <v>0.16684099999999999</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <v>0.13677400000000001</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O16" s="1">
@@ -31004,14 +31062,14 @@
       <c r="V16" s="2">
         <v>0.15396899999999999</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="2">
         <v>0.16625899999999999</v>
       </c>
-      <c r="X16" t="s">
+      <c r="X16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>8192</v>
       </c>
@@ -31036,10 +31094,10 @@
       <c r="J17" s="2">
         <v>0.118898</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <v>0.16681499999999999</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <v>0.139873</v>
       </c>
       <c r="O17" s="1">
@@ -31066,14 +31124,14 @@
       <c r="V17" s="2">
         <v>0.12113500000000001</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="2">
         <v>0.15184600000000001</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="2">
         <v>0.15746599999999999</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <v>16384</v>
       </c>
@@ -31098,10 +31156,10 @@
       <c r="J18" s="2">
         <v>0.104222</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>0.12015000000000001</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>0.16719899999999999</v>
       </c>
       <c r="O18" s="1">
@@ -31128,14 +31186,14 @@
       <c r="V18" s="2">
         <v>0.119377</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="2">
         <v>0.121152</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="2">
         <v>0.15412500000000001</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>32768</v>
       </c>
@@ -31160,10 +31218,10 @@
       <c r="J19" s="2">
         <v>0.10177700000000001</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>0.105255</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>0.11604</v>
       </c>
       <c r="O19" s="1">
@@ -31190,14 +31248,14 @@
       <c r="V19" s="2">
         <v>0.117691</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="2">
         <v>0.122335</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="2">
         <v>0.121985</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <v>65536</v>
       </c>
@@ -31222,10 +31280,10 @@
       <c r="J20" s="2">
         <v>0.179782</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>0.11700199999999999</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <v>0.12773699999999999</v>
       </c>
       <c r="O20" s="1">
@@ -31252,14 +31310,14 @@
       <c r="V20" s="2">
         <v>0.189721</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="2">
         <v>0.128829</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="2">
         <v>0.124027</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <v>131072</v>
       </c>
@@ -31284,10 +31342,10 @@
       <c r="J21" s="2">
         <v>0.18956799999999999</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="2">
         <v>0.22082599999999999</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
         <v>0.20807600000000001</v>
       </c>
       <c r="O21" s="1">
@@ -31314,14 +31372,14 @@
       <c r="V21" s="2">
         <v>0.19429099999999999</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="2">
         <v>0.22240099999999999</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="2">
         <v>0.20290900000000001</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <v>262144</v>
       </c>
@@ -31346,10 +31404,10 @@
       <c r="J22" s="2">
         <v>0.192194</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <v>0.221882</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <v>0.29319200000000001</v>
       </c>
       <c r="O22" s="1">
@@ -31376,14 +31434,14 @@
       <c r="V22" s="2">
         <v>0.19595599999999999</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="2">
         <v>0.224354</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="2">
         <v>0.29484900000000003</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <v>524288</v>
       </c>
@@ -31408,10 +31466,10 @@
       <c r="J23" s="2">
         <v>0.37658599999999998</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <v>0.38223200000000002</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <v>0.38553599999999999</v>
       </c>
       <c r="O23" s="1">
@@ -31438,568 +31496,571 @@
       <c r="V23" s="2">
         <v>0.379187</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="2">
         <v>0.37867099999999998</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="2">
         <v>0.38291199999999997</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>1048576</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>2.5017000000000001E-2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>0.116799</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>0.361761</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>0.43349799999999999</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <v>0.43933899999999998</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>0.38187399999999999</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="2">
         <v>0.383658</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <v>0.38041900000000001</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <v>0.38958500000000001</v>
       </c>
       <c r="O24" s="1">
         <v>1048576</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="2">
         <v>0.13214400000000001</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="2">
         <v>0.140038</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="2">
         <v>0.35921199999999998</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="2">
         <v>0.42436499999999999</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="2">
         <v>0.434498</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="2">
         <v>0.377216</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="2">
         <v>0.377438</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="2">
         <v>0.38563799999999998</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="2">
         <v>0.38427499999999998</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <v>2097152</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>2.5201999999999999E-2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>0.121452</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>0.36088799999999999</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>0.42451100000000003</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>0.451376</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>0.38589000000000001</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <v>0.37719999999999998</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="2">
         <v>0.386158</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <v>0.39099600000000001</v>
       </c>
       <c r="O25" s="1">
         <v>2097152</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="2">
         <v>0.13305600000000001</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="2">
         <v>0.141737</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="2">
         <v>0.35838300000000001</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="2">
         <v>0.42604900000000001</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="2">
         <v>0.44006400000000001</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="2">
         <v>0.38098599999999999</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="2">
         <v>0.380019</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="2">
         <v>0.38852900000000001</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="2">
         <v>0.38795400000000002</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <v>4194304</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>2.6096999999999999E-2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>0.13021199999999999</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>0.38137100000000002</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>0.46498</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>0.49726500000000001</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>0.44257999999999997</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="2">
         <v>0.46590199999999998</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="2">
         <v>0.53358099999999997</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="2">
         <v>0.55742599999999998</v>
       </c>
       <c r="O26" s="1">
         <v>4194304</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="2">
         <v>0.14038100000000001</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="2">
         <v>0.157697</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="2">
         <v>0.37626100000000001</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="2">
         <v>0.45872400000000002</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="2">
         <v>0.49197999999999997</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="2">
         <v>0.44505899999999998</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="2">
         <v>0.48186499999999999</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="2">
         <v>0.52334999999999998</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="2">
         <v>0.58506999999999998</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
       <c r="C27" s="1">
         <v>8388608</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>3.4433999999999999E-2</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>0.16921800000000001</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>0.51552699999999996</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>0.72057400000000005</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>0.73631000000000002</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>0.65790899999999997</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="2">
         <v>0.68644700000000003</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="2">
         <v>0.91904300000000005</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="2">
         <v>1.8124910000000001</v>
       </c>
       <c r="O27" s="1">
         <v>8388608</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="2">
         <v>0.13646800000000001</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="2">
         <v>0.17319899999999999</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="2">
         <v>0.50101499999999999</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="2">
         <v>0.66889600000000005</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="2">
         <v>0.73406899999999997</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="2">
         <v>0.657744</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="2">
         <v>0.66620100000000004</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="2">
         <v>0.91697799999999996</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="2">
         <v>1.899176</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <v>16777216</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>4.7648000000000003E-2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>0.206788</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>0.71517500000000001</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>0.968669</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <v>1.0328809999999999</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <v>0.95035599999999998</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="2">
         <v>0.92892600000000003</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="2">
         <v>0.95471399999999995</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="2">
         <v>1.7863530000000001</v>
       </c>
       <c r="O28" s="1">
         <v>16777216</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="2">
         <v>0.14415</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="2">
         <v>0.20987900000000001</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="2">
         <v>0.70927200000000001</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="2">
         <v>0.93852599999999997</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="2">
         <v>1.0193099999999999</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="2">
         <v>0.92188499999999995</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="2">
         <v>0.91894500000000001</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="2">
         <v>0.93830199999999997</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="2">
         <v>1.7875209999999999</v>
       </c>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>33554432</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>5.3926000000000002E-2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>0.21967999999999999</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>0.77917800000000004</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>1.1142559999999999</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>1.2128270000000001</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>1.0979890000000001</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
         <v>1.107888</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="2">
         <v>1.1315539999999999</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="2">
         <v>1.8468059999999999</v>
       </c>
       <c r="O29" s="1">
         <v>33554432</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="2">
         <v>0.14243</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="2">
         <v>0.22158700000000001</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="2">
         <v>0.78307199999999999</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="2">
         <v>1.0883020000000001</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="2">
         <v>1.2228429999999999</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="2">
         <v>1.0821419999999999</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="2">
         <v>1.109518</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="2">
         <v>1.1239269999999999</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="2">
         <v>1.8344309999999999</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>67108864</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>5.6356000000000003E-2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>0.22332399999999999</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>0.81923800000000002</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>1.1763300000000001</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <v>1.2693030000000001</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>1.157942</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="2">
         <v>1.1636679999999999</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="2">
         <v>1.2256229999999999</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="2">
         <v>1.839604</v>
       </c>
       <c r="O30" s="1">
         <v>67108864</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="2">
         <v>0.144763</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="2">
         <v>0.227932</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="2">
         <v>0.804257</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="2">
         <v>1.1450819999999999</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="2">
         <v>1.2818849999999999</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="2">
         <v>1.1663239999999999</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="2">
         <v>1.1638470000000001</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="2">
         <v>1.1778649999999999</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="2">
         <v>1.820878</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <v>134217728</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>7.0610000000000006E-2</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>0.25789400000000001</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>0.90912999999999999</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>1.29175</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>1.4200440000000001</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <v>1.3849089999999999</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="2">
         <v>1.396841</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="2">
         <v>1.4889349999999999</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="2">
         <v>2.1339830000000002</v>
       </c>
       <c r="O31" s="1">
         <v>134217728</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="2">
         <v>0.14199999999999999</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="2">
         <v>0.26524999999999999</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="2">
         <v>0.91329700000000003</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="2">
         <v>1.2915989999999999</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="2">
         <v>1.41615</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="2">
         <v>1.3512980000000001</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="2">
         <v>1.403705</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="2">
         <v>1.5575000000000001</v>
       </c>
-      <c r="X31">
+      <c r="X31" s="2">
         <v>2.019412</v>
       </c>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <v>268435456</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>7.3663999999999993E-2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>0.30150300000000002</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>1.101567</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>1.634468</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>1.736029</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <v>1.724348</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="2">
         <v>1.914712</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="2">
         <v>1.945319</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="2">
         <v>2.4180990000000002</v>
       </c>
       <c r="O32" s="1">
         <v>268435456</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="2">
         <v>0.15577099999999999</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="2">
         <v>0.30995200000000001</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="2">
         <v>1.1263840000000001</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="2">
         <v>1.6532230000000001</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="2">
         <v>1.6704969999999999</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="2">
         <v>1.604136</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="2">
         <v>1.729077</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="2">
         <v>1.848231</v>
       </c>
-      <c r="X32">
+      <c r="X32" s="2">
         <v>2.2939970000000001</v>
       </c>
     </row>
@@ -32007,61 +32068,61 @@
       <c r="C33" s="1">
         <v>536870912</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>7.2221999999999995E-2</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>0.301344</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>1.251044</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>1.6606959999999999</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>1.9342950000000001</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>1.819809</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="2">
         <v>1.920974</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="2">
         <v>2.0746859999999998</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="2">
         <v>2.447778</v>
       </c>
       <c r="O33" s="1">
         <v>536870912</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="2">
         <v>0.152559</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="2">
         <v>0.30471199999999998</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="2">
         <v>1.0934269999999999</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="2">
         <v>1.5983719999999999</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="2">
         <v>1.9011640000000001</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="2">
         <v>1.794411</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="2">
         <v>1.9121269999999999</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="2">
         <v>2.0576539999999999</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="2">
         <v>2.4898020000000001</v>
       </c>
     </row>
@@ -32069,63 +32130,83 @@
       <c r="C34" s="1">
         <v>1073741824</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>7.0574999999999999E-2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>0.296462</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>1.1014969999999999</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>1.633999</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>1.971106</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <v>1.803272</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="2">
         <v>1.9602550000000001</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="2">
         <v>2.1334499999999998</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="2">
         <v>2.599237</v>
       </c>
       <c r="O34" s="1">
         <v>1073741824</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="2">
         <v>0.149529</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="2">
         <v>0.29759099999999999</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="2">
         <v>1.127624</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="2">
         <v>1.6495610000000001</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="2">
         <v>1.997838</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="2">
         <v>1.8553649999999999</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="2">
         <v>1.9874510000000001</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="2">
         <v>2.1927599999999998</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="2">
         <v>2.4894910000000001</v>
       </c>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32139,10 +32220,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:X33"/>
+  <dimension ref="B1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:X76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32189,20 +32270,32 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
       <c r="O6"/>
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
-        <f>0.01</f>
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="D7" s="1">
         <f>2^28/C7</f>
-        <v>26843545600</v>
+        <v>447392426.66666669</v>
       </c>
       <c r="E7" s="2">
         <f>10^9/D7</f>
-        <v>3.7252902984619141E-2</v>
+        <v>2.2351741790771484</v>
+      </c>
+      <c r="F7" s="5">
+        <f>E7/$I$8</f>
+        <v>3.3527612686157227</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="1"/>
@@ -32210,15 +32303,26 @@
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="D8" s="1">
         <f>2^28/C8</f>
-        <v>2684354560</v>
+        <v>99420539.259259254</v>
       </c>
       <c r="E8" s="2">
         <f>10^9/D8</f>
-        <v>0.37252902984619141</v>
+        <v>10.058283805847168</v>
+      </c>
+      <c r="F8" s="5">
+        <f>E8/$I$8</f>
+        <v>15.087425708770752</v>
+      </c>
+      <c r="H8">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="4">
+        <f>1/H8</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="1"/>
@@ -32226,15 +32330,19 @@
     </row>
     <row r="9" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <f>2^28/C9</f>
-        <v>268435456</v>
+        <v>26843545.600000001</v>
       </c>
       <c r="E9" s="2">
         <f>10^9/D9</f>
-        <v>3.7252902984619141</v>
+        <v>37.252902984619141</v>
+      </c>
+      <c r="F9" s="5">
+        <f>E9/$I$8</f>
+        <v>55.879354476928711</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="1"/>
@@ -32242,15 +32350,19 @@
     </row>
     <row r="10" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1">
         <f>2^28/C10</f>
-        <v>89478485.333333328</v>
+        <v>10737418.24</v>
       </c>
       <c r="E10" s="2">
         <f>10^9/D10</f>
-        <v>11.175870895385742</v>
+        <v>93.132257461547852</v>
+      </c>
+      <c r="F10" s="5">
+        <f>E10/$I$8</f>
+        <v>139.69838619232178</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="1"/>
@@ -32258,15 +32370,19 @@
     </row>
     <row r="11" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
         <f>2^28/C11</f>
-        <v>53687091.200000003</v>
+        <v>5368709.1200000001</v>
       </c>
       <c r="E11" s="2">
         <f>10^9/D11</f>
-        <v>18.62645149230957</v>
+        <v>186.2645149230957</v>
+      </c>
+      <c r="F11" s="5">
+        <f>E11/$I$8</f>
+        <v>279.39677238464355</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="1"/>
@@ -32528,7 +32644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>8192</v>
       </c>
@@ -32590,7 +32706,7 @@
         <v>1.8335840000000001</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <v>16384</v>
       </c>
@@ -32652,7 +32768,7 @@
         <v>1.0111749999999999</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>32768</v>
       </c>
@@ -32714,7 +32830,10 @@
         <v>0.80701400000000001</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
       <c r="C20" s="1">
         <v>65536</v>
       </c>
@@ -32776,7 +32895,7 @@
         <v>1.091134</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <v>131072</v>
       </c>
@@ -32838,7 +32957,7 @@
         <v>1.0724549999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <v>262144</v>
       </c>
@@ -32900,7 +33019,10 @@
         <v>0.95737499999999998</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
       <c r="C23" s="1">
         <v>524288</v>
       </c>
@@ -32962,7 +33084,7 @@
         <v>1.025569</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>1048576</v>
       </c>
@@ -33024,7 +33146,7 @@
         <v>33.502597999999999</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <v>2097152</v>
       </c>
@@ -33086,7 +33208,7 @@
         <v>39.637282999999996</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <v>4194304</v>
       </c>
@@ -33148,7 +33270,7 @@
         <v>40.815773999999998</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <v>8388608</v>
       </c>
@@ -33207,7 +33329,7 @@
         <v>40.301859</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <v>16777216</v>
       </c>
@@ -33269,7 +33391,7 @@
         <v>40.542597999999998</v>
       </c>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>33554432</v>
       </c>
@@ -33331,7 +33453,7 @@
         <v>42.727296000000003</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>67108864</v>
       </c>
@@ -33393,7 +33515,7 @@
         <v>65.775902000000002</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <v>134217728</v>
       </c>
@@ -33455,7 +33577,7 @@
         <v>70.491669000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <v>268435456</v>
       </c>
